--- a/Results/property_id_weekends/CP.xlsx
+++ b/Results/property_id_weekends/CP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>Property_id</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Channel</t>
   </si>
   <si>
+    <t>Day</t>
+  </si>
+  <si>
     <t>room_count</t>
   </si>
   <si>
@@ -56,6 +59,12 @@
   </si>
   <si>
     <t>CORPORATES</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
   </si>
 </sst>
 </file>
@@ -417,13 +426,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,69 +463,75 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>42014</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>52500</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>52500</v>
+        <v>26250</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>26250</v>
       </c>
       <c r="I2">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>42028</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>26000</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>26000</v>
       </c>
       <c r="H3">
-        <v>54</v>
+        <v>26000</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -524,25 +539,28 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2">
         <v>42049</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -554,74 +572,80 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
         <v>42071</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>52500</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>52500</v>
+        <v>26250</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>26250</v>
       </c>
       <c r="I5">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2">
         <v>42098</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>21500</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>21500</v>
       </c>
       <c r="H6">
-        <v>43</v>
+        <v>21500</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -629,144 +653,159 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2">
         <v>42126</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>24000</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="I7">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2">
         <v>42127</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>24000</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="I8">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2">
         <v>42231</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
       </c>
       <c r="F9">
-        <v>24000</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="I9">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2">
         <v>42232</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
       </c>
       <c r="F10">
-        <v>24000</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="I10">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>0</v>
       </c>
     </row>
